--- a/SPE_Paper/Final/BlindTest_SSOIL.xlsx
+++ b/SPE_Paper/Final/BlindTest_SSOIL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d9ff865f7a05f0bf/01_KannaLibrary/15_Analogs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkumar\Documents\GitHub\SPE_Paper\Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{594AC345-F9FE-4F60-A8ED-3FC9287058B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCEF4FE3-381E-4195-8D9E-09AF1B39861C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1095" windowWidth="29040" windowHeight="15840" xr2:uid="{8FA23166-A84C-42E2-A81C-F03AC31641F9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8FA23166-A84C-42E2-A81C-F03AC31641F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="1" r:id="rId1"/>
@@ -523,7 +523,7 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,6 +686,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009D116458B00C2F4ABDA3850E7E2E99EE" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="31fe103c2f2fdbce2d38ca0c8c074d56">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b34f15b030d40ffca33e4aeb8eb001f5">
     <xsd:element name="properties">
@@ -799,29 +814,35 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CE5F0A0-27D0-4961-8C53-7C8FB84FDF39}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC7377C5-15C3-422D-8342-8A7FAB13E144}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39A0FD71-FD3E-455C-AF10-989D635B9C17}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39A0FD71-FD3E-455C-AF10-989D635B9C17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC7377C5-15C3-422D-8342-8A7FAB13E144}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CE5F0A0-27D0-4961-8C53-7C8FB84FDF39}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>